--- a/丟/FAS6562/FAS.FUND_INVESTMENT塞入邏輯.xlsx
+++ b/丟/FAS6562/FAS.FUND_INVESTMENT塞入邏輯.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentkhuang\source\repos\godxsdog\DmsSystem\丟\FAS6562\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3D8EE2-463A-4706-B880-5CE2BBBD15D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A4A9F1-0250-4135-A9A8-60D559D609C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Letter of Declaration with ISIN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -161,13 +161,17 @@
   </si>
   <si>
     <t>Fund Size as of 31 October 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund Size (USD)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -179,6 +183,15 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -205,12 +218,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,19 +567,19 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -585,7 +601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -596,7 +612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -607,7 +623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -618,7 +634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -629,7 +645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -640,7 +656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -651,7 +667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -662,7 +678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -673,7 +689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -684,7 +700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -695,7 +711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -706,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -728,29 +744,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3DB5F3-4A3E-449D-8DEF-E5EAEA410B85}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -758,10 +774,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -772,7 +788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -783,7 +799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -794,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -805,7 +821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -816,7 +832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -827,7 +843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -838,7 +854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -849,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -860,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -871,7 +887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -882,7 +898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
